--- a/DataFrames/problem2_allocation_summary.xlsx
+++ b/DataFrames/problem2_allocation_summary.xlsx
@@ -4324,19 +4324,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>21733.49</v>
+        <v>23455</v>
       </c>
       <c r="C2" t="n">
-        <v>136.79</v>
+        <v>154.18</v>
       </c>
       <c r="D2" t="n">
-        <v>21596.7</v>
+        <v>23300.82</v>
       </c>
       <c r="E2" t="n">
-        <v>32685.87</v>
+        <v>35491.64</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0063</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="3">
@@ -4344,19 +4344,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17425.34</v>
+        <v>16371</v>
       </c>
       <c r="C3" t="n">
-        <v>93.78</v>
+        <v>84.06</v>
       </c>
       <c r="D3" t="n">
-        <v>17331.56</v>
+        <v>16286.94</v>
       </c>
       <c r="E3" t="n">
-        <v>26139.81</v>
+        <v>24813.74</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0054</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="4">
@@ -4364,19 +4364,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19213.3</v>
+        <v>20333</v>
       </c>
       <c r="C4" t="n">
-        <v>111.34</v>
+        <v>122.64</v>
       </c>
       <c r="D4" t="n">
-        <v>19101.97</v>
+        <v>20210.36</v>
       </c>
       <c r="E4" t="n">
-        <v>28796.03</v>
+        <v>30457.79</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0058</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="5">
@@ -4384,19 +4384,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16909.46</v>
+        <v>18118</v>
       </c>
       <c r="C5" t="n">
-        <v>89.02</v>
+        <v>100.26</v>
       </c>
       <c r="D5" t="n">
-        <v>16820.44</v>
+        <v>18017.74</v>
       </c>
       <c r="E5" t="n">
-        <v>25316.87</v>
+        <v>27164.58</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0053</v>
+        <v>0.0055</v>
       </c>
     </row>
     <row r="6">
@@ -4404,19 +4404,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22226.79</v>
+        <v>21487</v>
       </c>
       <c r="C6" t="n">
-        <v>141.78</v>
+        <v>134.3</v>
       </c>
       <c r="D6" t="n">
-        <v>22085.02</v>
+        <v>21352.7</v>
       </c>
       <c r="E6" t="n">
-        <v>33388.38</v>
+        <v>32220.47</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0064</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="7">
@@ -4424,19 +4424,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18976.79</v>
+        <v>19972</v>
       </c>
       <c r="C7" t="n">
-        <v>108.94</v>
+        <v>118.99</v>
       </c>
       <c r="D7" t="n">
-        <v>18867.85</v>
+        <v>19853.01</v>
       </c>
       <c r="E7" t="n">
-        <v>28570.41</v>
+        <v>30291.51</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0057</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="8">
@@ -4444,19 +4444,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17517.35</v>
+        <v>18227</v>
       </c>
       <c r="C8" t="n">
-        <v>94.63</v>
+        <v>101.36</v>
       </c>
       <c r="D8" t="n">
-        <v>17422.72</v>
+        <v>18125.64</v>
       </c>
       <c r="E8" t="n">
-        <v>26313.45</v>
+        <v>27392.62</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0054</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="9">
@@ -4464,16 +4464,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16740.18</v>
+        <v>16608</v>
       </c>
       <c r="C9" t="n">
-        <v>87.45999999999999</v>
+        <v>86.25</v>
       </c>
       <c r="D9" t="n">
-        <v>16652.72</v>
+        <v>16521.75</v>
       </c>
       <c r="E9" t="n">
-        <v>25152.99</v>
+        <v>25024</v>
       </c>
       <c r="F9" t="n">
         <v>0.0052</v>
@@ -4484,19 +4484,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17404.44</v>
+        <v>18655</v>
       </c>
       <c r="C10" t="n">
-        <v>93.59</v>
+        <v>105.69</v>
       </c>
       <c r="D10" t="n">
-        <v>17310.86</v>
+        <v>18549.31</v>
       </c>
       <c r="E10" t="n">
-        <v>26135.71</v>
+        <v>28074.25</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0054</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="11">
@@ -4504,19 +4504,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16858.59</v>
+        <v>18982</v>
       </c>
       <c r="C11" t="n">
-        <v>88.56</v>
+        <v>108.99</v>
       </c>
       <c r="D11" t="n">
-        <v>16770.03</v>
+        <v>18873.01</v>
       </c>
       <c r="E11" t="n">
-        <v>25535.07</v>
+        <v>28512.89</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0053</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="12">
@@ -4524,19 +4524,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18273.37</v>
+        <v>19144</v>
       </c>
       <c r="C12" t="n">
-        <v>101.84</v>
+        <v>110.63</v>
       </c>
       <c r="D12" t="n">
-        <v>18171.53</v>
+        <v>19033.37</v>
       </c>
       <c r="E12" t="n">
-        <v>27476.28</v>
+        <v>28805.68</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0056</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="13">
@@ -4544,19 +4544,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16738.33</v>
+        <v>17532</v>
       </c>
       <c r="C13" t="n">
-        <v>87.45</v>
+        <v>94.76000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>16650.89</v>
+        <v>17437.24</v>
       </c>
       <c r="E13" t="n">
-        <v>25152.18</v>
+        <v>26283.96</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0052</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="14">
@@ -4564,19 +4564,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22596.2</v>
+        <v>19376</v>
       </c>
       <c r="C14" t="n">
-        <v>145.51</v>
+        <v>112.98</v>
       </c>
       <c r="D14" t="n">
-        <v>22450.69</v>
+        <v>19263.02</v>
       </c>
       <c r="E14" t="n">
-        <v>34042.35</v>
+        <v>29461.44</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0064</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="15">
@@ -4584,19 +4584,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16301.39</v>
+        <v>19493</v>
       </c>
       <c r="C15" t="n">
-        <v>83.42</v>
+        <v>114.15</v>
       </c>
       <c r="D15" t="n">
-        <v>16217.97</v>
+        <v>19378.85</v>
       </c>
       <c r="E15" t="n">
-        <v>24625.74</v>
+        <v>29226.55</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0051</v>
+        <v>0.0059</v>
       </c>
     </row>
     <row r="16">
@@ -4604,19 +4604,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19644.03</v>
+        <v>20209</v>
       </c>
       <c r="C16" t="n">
-        <v>115.68</v>
+        <v>121.39</v>
       </c>
       <c r="D16" t="n">
-        <v>19528.35</v>
+        <v>20087.61</v>
       </c>
       <c r="E16" t="n">
-        <v>29489.71</v>
+        <v>30328.16</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0059</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="17">
@@ -4624,19 +4624,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17858.59</v>
+        <v>18428</v>
       </c>
       <c r="C17" t="n">
-        <v>97.77</v>
+        <v>103.4</v>
       </c>
       <c r="D17" t="n">
-        <v>17760.82</v>
+        <v>18324.6</v>
       </c>
       <c r="E17" t="n">
-        <v>26800.04</v>
+        <v>27663.2</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0055</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="18">
@@ -4644,19 +4644,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>20866.9</v>
+        <v>21147</v>
       </c>
       <c r="C18" t="n">
-        <v>128.04</v>
+        <v>130.87</v>
       </c>
       <c r="D18" t="n">
-        <v>20738.87</v>
+        <v>21016.13</v>
       </c>
       <c r="E18" t="n">
-        <v>31367.81</v>
+        <v>31809.52</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0061</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="19">
@@ -4664,16 +4664,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>18378.53</v>
+        <v>18481</v>
       </c>
       <c r="C19" t="n">
-        <v>102.9</v>
+        <v>103.93</v>
       </c>
       <c r="D19" t="n">
-        <v>18275.63</v>
+        <v>18377.07</v>
       </c>
       <c r="E19" t="n">
-        <v>27742.23</v>
+        <v>27819.91</v>
       </c>
       <c r="F19" t="n">
         <v>0.0056</v>
@@ -4684,19 +4684,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>18118.09</v>
+        <v>16960</v>
       </c>
       <c r="C20" t="n">
-        <v>100.27</v>
+        <v>89.48999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>18017.82</v>
+        <v>16870.51</v>
       </c>
       <c r="E20" t="n">
-        <v>27271.13</v>
+        <v>25823.17</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0055</v>
+        <v>0.0053</v>
       </c>
     </row>
     <row r="21">
@@ -4704,19 +4704,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>15859.33</v>
+        <v>16596</v>
       </c>
       <c r="C21" t="n">
-        <v>79.34999999999999</v>
+        <v>86.14</v>
       </c>
       <c r="D21" t="n">
-        <v>15779.98</v>
+        <v>16509.86</v>
       </c>
       <c r="E21" t="n">
-        <v>24069.66</v>
+        <v>25195.27</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005</v>
+        <v>0.0052</v>
       </c>
     </row>
     <row r="22">
@@ -4724,19 +4724,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>18397.74</v>
+        <v>17262</v>
       </c>
       <c r="C22" t="n">
-        <v>103.09</v>
+        <v>92.27</v>
       </c>
       <c r="D22" t="n">
-        <v>18294.64</v>
+        <v>17169.73</v>
       </c>
       <c r="E22" t="n">
-        <v>27644.8</v>
+        <v>26210.08</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0056</v>
+        <v>0.0053</v>
       </c>
     </row>
     <row r="23">
@@ -4744,19 +4744,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>17787.37</v>
+        <v>18439</v>
       </c>
       <c r="C23" t="n">
-        <v>97.11</v>
+        <v>103.51</v>
       </c>
       <c r="D23" t="n">
-        <v>17690.26</v>
+        <v>18335.49</v>
       </c>
       <c r="E23" t="n">
-        <v>26632.94</v>
+        <v>27674.95</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0055</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="24">
@@ -4764,19 +4764,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>18331.66</v>
+        <v>18961</v>
       </c>
       <c r="C24" t="n">
-        <v>102.42</v>
+        <v>108.78</v>
       </c>
       <c r="D24" t="n">
-        <v>18229.23</v>
+        <v>18852.22</v>
       </c>
       <c r="E24" t="n">
-        <v>27545.85</v>
+        <v>28396.45</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0056</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="25">
@@ -4784,19 +4784,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>18063.59</v>
+        <v>19095</v>
       </c>
       <c r="C25" t="n">
-        <v>99.72</v>
+        <v>110.13</v>
       </c>
       <c r="D25" t="n">
-        <v>17963.87</v>
+        <v>18984.87</v>
       </c>
       <c r="E25" t="n">
-        <v>27068.27</v>
+        <v>28620.11</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0055</v>
+        <v>0.0058</v>
       </c>
     </row>
   </sheetData>
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>138614.18</v>
+        <v>146353</v>
       </c>
       <c r="C2" t="n">
-        <v>831.0599999999999</v>
+        <v>832.63</v>
       </c>
       <c r="D2" t="n">
-        <v>137783.12</v>
+        <v>145520.37</v>
       </c>
       <c r="E2" t="n">
-        <v>229638.54</v>
+        <v>242533.95</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="3">
@@ -4879,19 +4879,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127103.51</v>
+        <v>130089</v>
       </c>
       <c r="C3" t="n">
-        <v>749.02</v>
+        <v>809.42</v>
       </c>
       <c r="D3" t="n">
-        <v>126354.5</v>
+        <v>129279.58</v>
       </c>
       <c r="E3" t="n">
-        <v>191446.21</v>
+        <v>195878.14</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0059</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="4">
@@ -4901,19 +4901,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176503.14</v>
+        <v>176889</v>
       </c>
       <c r="C4" t="n">
-        <v>910.37</v>
+        <v>957.1</v>
       </c>
       <c r="D4" t="n">
-        <v>175592.77</v>
+        <v>175931.9</v>
       </c>
       <c r="E4" t="n">
-        <v>243878.85</v>
+        <v>244349.86</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0052</v>
+        <v>0.0054</v>
       </c>
     </row>
   </sheetData>
